--- a/regression materials/online returns data.xlsx
+++ b/regression materials/online returns data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tn9k4\GitHub\courses_teach\mizzou\mar4050_F21\regression materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tn9k4\GitHub\courses_teach\mizzou\mar4050_S23_2\regression materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB64254E-39D6-4E07-9651-6EC9C1A37D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9683C54A-4FE3-466A-8912-38DDCBC1B2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE347F25-236D-CB44-9006-C403C6A32B22}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EE347F25-236D-CB44-9006-C403C6A32B22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Percentage returned</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -176,14 +179,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
@@ -1746,7 +1748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2267AFA8-A0C1-4325-9D08-9F717CADD6D3}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
@@ -1762,48 +1764,48 @@
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>0.51958591904608487</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>0.26996952727096468</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>0.25125079720098942</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>2.3863462838069482</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>41</v>
       </c>
     </row>
@@ -1813,156 +1815,154 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>82.130656356182186</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>82.130656356182186</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>14.422427497044485</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>4.9886659809354923E-4</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>39</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>222.09129486333003</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>5.6946485862392313</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>40</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>304.22195121951222</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>8.9554795060324253</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>0.71152283210843192</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>12.586355773707149</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>2.5979626841605483E-15</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>7.5162887341278601</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>10.39467027793699</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>7.5162887341278601</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>10.39467027793699</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>-0.52074523945996476</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>0.13712168021274873</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>-3.7976871246910893</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>4.9886659809355042E-4</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>-0.79810001696647581</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>-0.24339046195345371</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>-0.79810001696647581</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>-0.24339046195345371</v>
       </c>
     </row>
@@ -1973,10 +1973,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFAA762-F303-304B-B2EA-58CC86BF4FDE}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1985,340 +1985,466 @@
     <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
       <c r="B10">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3.25</v>
       </c>
       <c r="B12">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3.5</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3.5</v>
       </c>
       <c r="B14">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3.75</v>
       </c>
       <c r="B15">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3.9</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3.99</v>
       </c>
       <c r="B17">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
       <c r="B18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4.25</v>
       </c>
       <c r="B19">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4.25</v>
       </c>
       <c r="B20">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4.3499999999999996</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4.5</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5.25</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5.89</v>
       </c>
       <c r="B25">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6</v>
       </c>
       <c r="B26">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6.15</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6.25</v>
       </c>
       <c r="B28">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6.5</v>
       </c>
       <c r="B29">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6.5</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6.75</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6.95</v>
       </c>
       <c r="B32">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6.95</v>
       </c>
       <c r="B33">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
       <c r="B34">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7.25</v>
       </c>
       <c r="B36">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7.25</v>
       </c>
       <c r="B37">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7.5</v>
       </c>
       <c r="B38">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>7.5</v>
       </c>
       <c r="B39">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>7.75</v>
       </c>
       <c r="B40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>7.75</v>
       </c>
       <c r="B41">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>7.8</v>
       </c>
       <c r="B42">
         <v>3</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
